--- a/data/trans_orig/P34A_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34A_R-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>96858</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>81357</v>
+        <v>82488</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>114159</v>
+        <v>114493</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3602195048353258</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3025693676244696</v>
+        <v>0.3067763548532905</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.424560943604851</v>
+        <v>0.4258051314477844</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>80</v>
@@ -765,19 +765,19 @@
         <v>87314</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>72737</v>
+        <v>71263</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>104583</v>
+        <v>102349</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3363261805472743</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2801764280519812</v>
+        <v>0.2745006433166102</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4028434538294771</v>
+        <v>0.3942415357652897</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>178</v>
@@ -786,19 +786,19 @@
         <v>184172</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>161738</v>
+        <v>161344</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>207014</v>
+        <v>205968</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3484825346036051</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3060343873735307</v>
+        <v>0.3052875747672534</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3917034319472066</v>
+        <v>0.389724416370428</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>172029</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>154728</v>
+        <v>154394</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>187530</v>
+        <v>186399</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6397804951646742</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.575439056395149</v>
+        <v>0.5741948685522158</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6974306323755305</v>
+        <v>0.6932236451467095</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>164</v>
@@ -836,19 +836,19 @@
         <v>172297</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>155028</v>
+        <v>157262</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>186874</v>
+        <v>188348</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6636738194527257</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5971565461705219</v>
+        <v>0.605758464234711</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7198235719480187</v>
+        <v>0.7254993566833902</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>334</v>
@@ -857,19 +857,19 @@
         <v>344325</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>321483</v>
+        <v>322529</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>366759</v>
+        <v>367153</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6515174653963949</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6082965680527934</v>
+        <v>0.610275583629572</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6939656126264693</v>
+        <v>0.6947124252327467</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>160378</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>140890</v>
+        <v>140807</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>185516</v>
+        <v>182532</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3264322091873336</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2867658766457044</v>
+        <v>0.2865979066669357</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3775974977221216</v>
+        <v>0.3715241079172953</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>214</v>
@@ -982,19 +982,19 @@
         <v>216445</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>195922</v>
+        <v>195330</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>241138</v>
+        <v>238740</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4312452880793819</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3903569135657611</v>
+        <v>0.3891762597247893</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.480443663617541</v>
+        <v>0.4756673218383515</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>365</v>
@@ -1003,19 +1003,19 @@
         <v>376822</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>345395</v>
+        <v>347574</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>408822</v>
+        <v>411320</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3793981168098406</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3477565361586125</v>
+        <v>0.3499496687589674</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4116167071868783</v>
+        <v>0.4141315313728385</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>330927</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>305789</v>
+        <v>308773</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>350415</v>
+        <v>350498</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6735677908126665</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6224025022778784</v>
+        <v>0.6284758920827048</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7132341233542958</v>
+        <v>0.7134020933330644</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>283</v>
@@ -1053,19 +1053,19 @@
         <v>285461</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>260768</v>
+        <v>263166</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>305984</v>
+        <v>306576</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5687547119206181</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.519556336382459</v>
+        <v>0.5243326781616485</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6096430864342388</v>
+        <v>0.6108237402752108</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>596</v>
@@ -1074,19 +1074,19 @@
         <v>616388</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>584388</v>
+        <v>581890</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>647815</v>
+        <v>645636</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6206018831901594</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5883832928131216</v>
+        <v>0.5858684686271615</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6522434638413874</v>
+        <v>0.6500503312410326</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>132903</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>116158</v>
+        <v>116238</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>149822</v>
+        <v>151434</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4181849817051008</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3654956088058435</v>
+        <v>0.3657465485602566</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4714228639483841</v>
+        <v>0.4764923102497373</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>133</v>
@@ -1199,19 +1199,19 @@
         <v>135584</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>119195</v>
+        <v>119651</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>154400</v>
+        <v>154274</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4042315467766558</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3553675661725214</v>
+        <v>0.3567297549663151</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4603291324702513</v>
+        <v>0.4599532331689693</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>263</v>
@@ -1220,19 +1220,19 @@
         <v>268487</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>242686</v>
+        <v>243577</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>292386</v>
+        <v>293714</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4110202562391887</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3715212803995388</v>
+        <v>0.3728866984240621</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4476063546167314</v>
+        <v>0.4496395132369307</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>184906</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>167987</v>
+        <v>166375</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>201651</v>
+        <v>201571</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5818150182948991</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5285771360516158</v>
+        <v>0.5235076897502627</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6345043911941564</v>
+        <v>0.6342534514397433</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>202</v>
@@ -1270,19 +1270,19 @@
         <v>199828</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>181012</v>
+        <v>181138</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>216217</v>
+        <v>215761</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5957684532233442</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5396708675297484</v>
+        <v>0.5400467668310308</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6446324338274786</v>
+        <v>0.6432702450336848</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>381</v>
@@ -1291,19 +1291,19 @@
         <v>384734</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>360835</v>
+        <v>359507</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>410535</v>
+        <v>409644</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5889797437608113</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5523936453832686</v>
+        <v>0.5503604867630696</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6284787196004612</v>
+        <v>0.6271133015759379</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>138003</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>120235</v>
+        <v>117421</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>155021</v>
+        <v>156238</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3864074348546248</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3366550284722908</v>
+        <v>0.3287771987145484</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4340564286633648</v>
+        <v>0.4374641972627307</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>159</v>
@@ -1416,19 +1416,19 @@
         <v>154199</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>135332</v>
+        <v>138293</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>172296</v>
+        <v>172734</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4183696911043656</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3671817430036473</v>
+        <v>0.3752157301913632</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4674718223622658</v>
+        <v>0.4686607948469296</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>297</v>
@@ -1437,19 +1437,19 @@
         <v>292202</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>266992</v>
+        <v>266392</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>320335</v>
+        <v>320882</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4026401358862897</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3679013148380207</v>
+        <v>0.3670757018978369</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.44140575564038</v>
+        <v>0.4421596289986495</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>219142</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>202124</v>
+        <v>200907</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>236910</v>
+        <v>239724</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6135925651453752</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5659435713366352</v>
+        <v>0.5625358027372691</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6633449715277093</v>
+        <v>0.6712228012854515</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>222</v>
@@ -1487,19 +1487,19 @@
         <v>214371</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>196274</v>
+        <v>195836</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>233238</v>
+        <v>230277</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5816303088956344</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5325281776377343</v>
+        <v>0.5313392051530704</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6328182569963533</v>
+        <v>0.6247842698086365</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>445</v>
@@ -1508,19 +1508,19 @@
         <v>433513</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>405380</v>
+        <v>404833</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>458723</v>
+        <v>459323</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5973598641137103</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5585942443596199</v>
+        <v>0.5578403710013505</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6320986851619792</v>
+        <v>0.6329242981021629</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>96508</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>81867</v>
+        <v>82019</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>110482</v>
+        <v>109992</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4977184095165874</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4222095625148667</v>
+        <v>0.4229958718319368</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5697877334052993</v>
+        <v>0.5672572273740314</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>129</v>
@@ -1633,19 +1633,19 @@
         <v>135868</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>122469</v>
+        <v>121146</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>149885</v>
+        <v>148648</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6801822516603814</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.613101381415545</v>
+        <v>0.606479795599468</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7503506309793477</v>
+        <v>0.7441579586128564</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>226</v>
@@ -1654,19 +1654,19 @@
         <v>232377</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>212801</v>
+        <v>213486</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>251670</v>
+        <v>253564</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.590306729025073</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5405778355498362</v>
+        <v>0.5423198073173839</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6393181834759134</v>
+        <v>0.6441284660753596</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>97393</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>83419</v>
+        <v>83909</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>112034</v>
+        <v>111882</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5022815904834127</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4302122665947005</v>
+        <v>0.4327427726259686</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5777904374851333</v>
+        <v>0.5770041281680632</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>61</v>
@@ -1704,19 +1704,19 @@
         <v>63885</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>49868</v>
+        <v>51105</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>77284</v>
+        <v>78607</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3198177483396186</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2496493690206521</v>
+        <v>0.2558420413871436</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.386898618584455</v>
+        <v>0.393520204400532</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>160</v>
@@ -1725,19 +1725,19 @@
         <v>161277</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>141984</v>
+        <v>140090</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>180853</v>
+        <v>180168</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.409693270974927</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3606818165240866</v>
+        <v>0.3558715339246404</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4594221644501636</v>
+        <v>0.4576801926826159</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>100976</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>82917</v>
+        <v>83971</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>116750</v>
+        <v>117003</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3785204561812759</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3108237953519857</v>
+        <v>0.3147748101899682</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4376512345531837</v>
+        <v>0.438598704847606</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>117</v>
@@ -1850,19 +1850,19 @@
         <v>123568</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>108123</v>
+        <v>107337</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>139683</v>
+        <v>140142</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4506137324152846</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.394292176602557</v>
+        <v>0.3914249438027571</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.50938135736673</v>
+        <v>0.5110552826831252</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>215</v>
@@ -1871,19 +1871,19 @@
         <v>224544</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>202487</v>
+        <v>203308</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>246171</v>
+        <v>248891</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4150639362337831</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3742925341062852</v>
+        <v>0.3758096450888379</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4550415282629329</v>
+        <v>0.460070098431272</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>165789</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>150015</v>
+        <v>149762</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>183848</v>
+        <v>182794</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6214795438187241</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5623487654468166</v>
+        <v>0.5614012951523941</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6891762046480147</v>
+        <v>0.6852251898100319</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>149</v>
@@ -1921,19 +1921,19 @@
         <v>150653</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>134538</v>
+        <v>134079</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>166098</v>
+        <v>166884</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5493862675847154</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.49061864263327</v>
+        <v>0.488944717316875</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.605707823397443</v>
+        <v>0.6085750561972429</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>313</v>
@@ -1942,19 +1942,19 @@
         <v>316442</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>294815</v>
+        <v>292095</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>338499</v>
+        <v>337678</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5849360637662169</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5449584717370675</v>
+        <v>0.539929901568728</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6257074658937148</v>
+        <v>0.6241903549111623</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>272160</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>244826</v>
+        <v>248537</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>297697</v>
+        <v>298140</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.447718881347569</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4027519585513226</v>
+        <v>0.408858117671875</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4897281807253022</v>
+        <v>0.490456587221641</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>275</v>
@@ -2067,19 +2067,19 @@
         <v>289423</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>265941</v>
+        <v>263167</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>314797</v>
+        <v>312777</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.462198263305275</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4246991301322517</v>
+        <v>0.4202678467788496</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5027199923415137</v>
+        <v>0.49949433904364</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>536</v>
@@ -2088,19 +2088,19 @@
         <v>561583</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>528149</v>
+        <v>526399</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>598133</v>
+        <v>594051</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.455065960833745</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4279735596096611</v>
+        <v>0.4265555268732077</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4846830281075191</v>
+        <v>0.4813753415225946</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>335722</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>310185</v>
+        <v>309742</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>363056</v>
+        <v>359345</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.552281118652431</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5102718192746978</v>
+        <v>0.509543412778359</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5972480414486775</v>
+        <v>0.591141882328125</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>335</v>
@@ -2138,19 +2138,19 @@
         <v>336765</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>311391</v>
+        <v>313411</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>360247</v>
+        <v>363021</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.537801736694725</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4972800076584863</v>
+        <v>0.5005056609563595</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5753008698677483</v>
+        <v>0.5797321532211505</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>665</v>
@@ -2159,19 +2159,19 @@
         <v>672487</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>635937</v>
+        <v>640019</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>705921</v>
+        <v>707671</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.544934039166255</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5153169718924806</v>
+        <v>0.5186246584774054</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5720264403903386</v>
+        <v>0.5734444731267925</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>329340</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>304223</v>
+        <v>301479</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>357495</v>
+        <v>356420</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4524718801386903</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4179644590375785</v>
+        <v>0.4141938702732271</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4911534287491425</v>
+        <v>0.4896755717578642</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>366</v>
@@ -2284,19 +2284,19 @@
         <v>388662</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>359933</v>
+        <v>358675</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>417704</v>
+        <v>417643</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5160840489169967</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4779357688445474</v>
+        <v>0.47626519801477</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5546466989755693</v>
+        <v>0.5545663431928997</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>684</v>
@@ -2305,19 +2305,19 @@
         <v>718003</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>681089</v>
+        <v>679425</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>759125</v>
+        <v>757554</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4848198107685111</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.459894444434633</v>
+        <v>0.4587710051441866</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5125872966414109</v>
+        <v>0.51152599431726</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>398529</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>370374</v>
+        <v>371449</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>423646</v>
+        <v>426390</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5475281198613097</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5088465712508576</v>
+        <v>0.5103244282421359</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5820355409624217</v>
+        <v>0.5858061297267732</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>349</v>
@@ -2355,19 +2355,19 @@
         <v>364437</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>335395</v>
+        <v>335456</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>393166</v>
+        <v>394424</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4839159510830034</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4453533010244306</v>
+        <v>0.4454336568071004</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5220642311554528</v>
+        <v>0.52373480198523</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>752</v>
@@ -2376,19 +2376,19 @@
         <v>762965</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>721843</v>
+        <v>723414</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>799879</v>
+        <v>801543</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5151801892314889</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4874127033585888</v>
+        <v>0.4884740056827398</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.540105555565367</v>
+        <v>0.5412289948558133</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>1327127</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1268004</v>
+        <v>1271963</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1384343</v>
+        <v>1380932</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4106765660559558</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3923809561173278</v>
+        <v>0.3936060048574851</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4283818665055228</v>
+        <v>0.427326219942221</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1473</v>
@@ -2501,19 +2501,19 @@
         <v>1531062</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1469091</v>
+        <v>1475005</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1585963</v>
+        <v>1590618</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4613358319613749</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4426627167553541</v>
+        <v>0.4444447820239393</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.477878378661411</v>
+        <v>0.4792810034845691</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2764</v>
@@ -2522,19 +2522,19 @@
         <v>2858190</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2781063</v>
+        <v>2780722</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2934903</v>
+        <v>2945061</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4363433802622917</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4245688393630899</v>
+        <v>0.4245167822260319</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4480548335314721</v>
+        <v>0.4496054819986829</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>1904436</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1847220</v>
+        <v>1850631</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1963559</v>
+        <v>1959600</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5893234339440443</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5716181334944773</v>
+        <v>0.5726737800577792</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6076190438826725</v>
+        <v>0.606393995142515</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1765</v>
@@ -2572,19 +2572,19 @@
         <v>1787697</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1732796</v>
+        <v>1728141</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1849668</v>
+        <v>1843754</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5386641680386252</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5221216213385891</v>
+        <v>0.520718996515431</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5573372832446459</v>
+        <v>0.5555552179760608</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3646</v>
@@ -2593,19 +2593,19 @@
         <v>3692132</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3615419</v>
+        <v>3605261</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3769259</v>
+        <v>3769600</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5636566197377083</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5519451664685279</v>
+        <v>0.550394518001317</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5754311606369101</v>
+        <v>0.5754832177739679</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>71927</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>57558</v>
+        <v>56500</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>89308</v>
+        <v>88076</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.244038605461119</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1952848932089754</v>
+        <v>0.1916940084581809</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3030086619647098</v>
+        <v>0.2988294225629244</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>93</v>
@@ -2962,19 +2962,19 @@
         <v>103491</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>86520</v>
+        <v>87253</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>121783</v>
+        <v>121543</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3602883159143264</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3012054922855969</v>
+        <v>0.3037574306699788</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.423970350717827</v>
+        <v>0.4231329476362751</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>163</v>
@@ -2983,19 +2983,19 @@
         <v>175418</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>151881</v>
+        <v>153377</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>198659</v>
+        <v>199639</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3014151032815061</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.260971583410664</v>
+        <v>0.2635422416155124</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3413484477308067</v>
+        <v>0.3430327422028678</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>222811</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>205430</v>
+        <v>206662</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>237180</v>
+        <v>238238</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.755961394538881</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.69699133803529</v>
+        <v>0.7011705774370756</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8047151067910244</v>
+        <v>0.808305991541819</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>163</v>
@@ -3033,19 +3033,19 @@
         <v>183754</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>165462</v>
+        <v>165702</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>200725</v>
+        <v>199992</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6397116840856736</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.576029649282173</v>
+        <v>0.5768670523637249</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6987945077144031</v>
+        <v>0.6962425693300212</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>375</v>
@@ -3054,19 +3054,19 @@
         <v>406565</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>383324</v>
+        <v>382344</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>430102</v>
+        <v>428606</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6985848967184939</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6586515522691934</v>
+        <v>0.6569672577971323</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.739028416589336</v>
+        <v>0.7364577583844877</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>108444</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>88980</v>
+        <v>92233</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>126749</v>
+        <v>130085</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.214517401188427</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1760148155596352</v>
+        <v>0.1824488059562675</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2507266629170998</v>
+        <v>0.2573247787469033</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>171</v>
@@ -3179,19 +3179,19 @@
         <v>184283</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>161401</v>
+        <v>161354</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>208154</v>
+        <v>208513</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3518423468533018</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3081554967504041</v>
+        <v>0.3080658577269567</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3974186675056966</v>
+        <v>0.398104469331757</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>275</v>
@@ -3200,19 +3200,19 @@
         <v>292727</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>263233</v>
+        <v>263442</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>324235</v>
+        <v>322482</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2843964855551924</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2557420471742627</v>
+        <v>0.2559453118579359</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3150077979563682</v>
+        <v>0.3133048705709698</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>397083</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>378778</v>
+        <v>375442</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>416547</v>
+        <v>413294</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.785482598811573</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7492733370829001</v>
+        <v>0.7426752212530963</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8239851844403648</v>
+        <v>0.8175511940437324</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>309</v>
@@ -3250,19 +3250,19 @@
         <v>339482</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>315611</v>
+        <v>315252</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>362364</v>
+        <v>362411</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6481576531466982</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6025813324943035</v>
+        <v>0.6018955306682432</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6918445032495967</v>
+        <v>0.6919341422730434</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>677</v>
@@ -3271,19 +3271,19 @@
         <v>736565</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>705057</v>
+        <v>706810</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>766059</v>
+        <v>765850</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7156035144448076</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.684992202043632</v>
+        <v>0.6866951294290302</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7442579528257374</v>
+        <v>0.7440546881420641</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>60551</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>46962</v>
+        <v>47645</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>75178</v>
+        <v>75042</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1868590070346001</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1449240026322066</v>
+        <v>0.1470330176082968</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2319972266446075</v>
+        <v>0.2315777780820054</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>63</v>
@@ -3396,19 +3396,19 @@
         <v>66035</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>52572</v>
+        <v>52880</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>81978</v>
+        <v>81760</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1936406307328737</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1541597912727772</v>
+        <v>0.1550628940332487</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2403912254079963</v>
+        <v>0.2397527065545786</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>121</v>
@@ -3417,19 +3417,19 @@
         <v>126586</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>106375</v>
+        <v>107078</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>147357</v>
+        <v>147604</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1903363601662309</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.159945836132426</v>
+        <v>0.161004138170716</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2215677343711837</v>
+        <v>0.221939186015194</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>263495</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>248868</v>
+        <v>249004</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>277084</v>
+        <v>276401</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8131409929653999</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7680027733553926</v>
+        <v>0.7684222219179947</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8550759973677938</v>
+        <v>0.8529669823917035</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>254</v>
@@ -3467,19 +3467,19 @@
         <v>274985</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>259042</v>
+        <v>259260</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>288448</v>
+        <v>288140</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8063593692671263</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7596087745920037</v>
+        <v>0.7602472934454219</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8458402087272229</v>
+        <v>0.8449371059667515</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>515</v>
@@ -3488,19 +3488,19 @@
         <v>538480</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>517709</v>
+        <v>517462</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>558691</v>
+        <v>557988</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8096636398337691</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7784322656288162</v>
+        <v>0.7780608139848058</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8400541638675739</v>
+        <v>0.838995861829284</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>103142</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>86807</v>
+        <v>84930</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>122810</v>
+        <v>120603</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2764294571085083</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2326498258870346</v>
+        <v>0.2276211348198965</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3291431513678559</v>
+        <v>0.323227589852525</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>123</v>
@@ -3613,19 +3613,19 @@
         <v>130044</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>111870</v>
+        <v>112354</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>149068</v>
+        <v>149826</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3343450900576844</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2876196335982985</v>
+        <v>0.2888640336469806</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3832563751438832</v>
+        <v>0.3852048088159852</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>218</v>
@@ -3634,19 +3634,19 @@
         <v>233185</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>204668</v>
+        <v>210232</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>259961</v>
+        <v>261209</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3059887891953696</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2685678203263808</v>
+        <v>0.2758692795285766</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3411236792485915</v>
+        <v>0.3427616809984467</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>269979</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>250311</v>
+        <v>252518</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>286314</v>
+        <v>288191</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7235705428914917</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6708568486321441</v>
+        <v>0.6767724101474748</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7673501741129655</v>
+        <v>0.7723788651801036</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>248</v>
@@ -3684,19 +3684,19 @@
         <v>258907</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>239883</v>
+        <v>239125</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>277081</v>
+        <v>276597</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6656549099423156</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6167436248561169</v>
+        <v>0.6147951911840146</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7123803664017015</v>
+        <v>0.7111359663530193</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>496</v>
@@ -3705,19 +3705,19 @@
         <v>528887</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>502111</v>
+        <v>500863</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>557404</v>
+        <v>551840</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6940112108046304</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6588763207514083</v>
+        <v>0.6572383190015532</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.731432179673619</v>
+        <v>0.7241307204714234</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>59766</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>47358</v>
+        <v>47117</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>73094</v>
+        <v>75633</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2810945204979078</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2227397841501531</v>
+        <v>0.221602894998367</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3437830325668688</v>
+        <v>0.3557230115082531</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>78</v>
@@ -3830,19 +3830,19 @@
         <v>83315</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>69510</v>
+        <v>67436</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>97921</v>
+        <v>97786</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.379408471344761</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3165444042347959</v>
+        <v>0.3070995843295547</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4459242890531182</v>
+        <v>0.4453096968916018</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>132</v>
@@ -3851,19 +3851,19 @@
         <v>143080</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>122641</v>
+        <v>124016</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>161849</v>
+        <v>166060</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3310445604417571</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2837538969943825</v>
+        <v>0.2869362518661302</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3744688678030814</v>
+        <v>0.384212890064235</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>152852</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>139524</v>
+        <v>136985</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>165260</v>
+        <v>165501</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7189054795020922</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.656216967433131</v>
+        <v>0.6442769884917466</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7772602158498469</v>
+        <v>0.7783971050016329</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>134</v>
@@ -3901,19 +3901,19 @@
         <v>136276</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>121670</v>
+        <v>121805</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>150081</v>
+        <v>152155</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.620591528655239</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5540757109468826</v>
+        <v>0.5546903031083973</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6834555957652043</v>
+        <v>0.6929004156704451</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>276</v>
@@ -3922,19 +3922,19 @@
         <v>289129</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>270360</v>
+        <v>266149</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>309568</v>
+        <v>308193</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6689554395582429</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6255311321969186</v>
+        <v>0.6157871099357651</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7162461030056176</v>
+        <v>0.7130637481338699</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>38935</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>28877</v>
+        <v>28284</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>52203</v>
+        <v>51448</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1421085411758155</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1053968244629152</v>
+        <v>0.1032321223632243</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1905340686694072</v>
+        <v>0.1877788985547178</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>52</v>
@@ -4047,19 +4047,19 @@
         <v>53931</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41216</v>
+        <v>42149</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>67620</v>
+        <v>68873</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1925889537468658</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1471821564361169</v>
+        <v>0.1505149171586451</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2414747105239686</v>
+        <v>0.2459487753969955</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>89</v>
@@ -4068,19 +4068,19 @@
         <v>92866</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>77709</v>
+        <v>75527</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>113703</v>
+        <v>112033</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1676243788722057</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1402650260635632</v>
+        <v>0.1363278605809511</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2052360712843182</v>
+        <v>0.2022220483949997</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>235046</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>221778</v>
+        <v>222533</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>245104</v>
+        <v>245697</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8578914588241845</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8094659313305931</v>
+        <v>0.8122211014452821</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8946031755370848</v>
+        <v>0.8967678776367756</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>217</v>
@@ -4118,19 +4118,19 @@
         <v>226100</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>212411</v>
+        <v>211158</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>238815</v>
+        <v>237882</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8074110462531342</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7585252894760313</v>
+        <v>0.7540512246030046</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8528178435638828</v>
+        <v>0.849485082841355</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>441</v>
@@ -4139,19 +4139,19 @@
         <v>461146</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>440309</v>
+        <v>441979</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>476303</v>
+        <v>478485</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8323756211277943</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7947639287156829</v>
+        <v>0.7977779516050012</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8597349739364377</v>
+        <v>0.863672139419049</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>136982</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>115357</v>
+        <v>115608</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>159116</v>
+        <v>158015</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2069562258794428</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1742838404320607</v>
+        <v>0.1746638147796676</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2403967888770847</v>
+        <v>0.2387322577015972</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>167</v>
@@ -4264,19 +4264,19 @@
         <v>177906</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>155483</v>
+        <v>155373</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>204335</v>
+        <v>203421</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2568096701195707</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2244422495512791</v>
+        <v>0.224282423813554</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2949604504541357</v>
+        <v>0.2936400514833136</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>293</v>
@@ -4285,19 +4285,19 @@
         <v>314889</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>281564</v>
+        <v>283641</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>346005</v>
+        <v>347507</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2324508767080899</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2078507098758756</v>
+        <v>0.2093840810999238</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2554206594749662</v>
+        <v>0.2565297278329426</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>524909</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>502775</v>
+        <v>503876</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>546534</v>
+        <v>546283</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7930437741205573</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7596032111229153</v>
+        <v>0.7612677422984025</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8257161595679393</v>
+        <v>0.8253361852203324</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>468</v>
@@ -4335,19 +4335,19 @@
         <v>514849</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>488420</v>
+        <v>489334</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>537272</v>
+        <v>537382</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7431903298804293</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7050395495458642</v>
+        <v>0.7063599485166862</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7755577504487208</v>
+        <v>0.775717576186446</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>959</v>
@@ -4356,19 +4356,19 @@
         <v>1039757</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1008641</v>
+        <v>1007139</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1073082</v>
+        <v>1071005</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7675491232919101</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7445793405250338</v>
+        <v>0.7434702721670575</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7921492901241247</v>
+        <v>0.7906159189000764</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>189981</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>165758</v>
+        <v>166024</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>215035</v>
+        <v>217224</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2438471404190307</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2127564584343759</v>
+        <v>0.2130982545936393</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2760054027985456</v>
+        <v>0.2788142408287173</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>279</v>
@@ -4481,19 +4481,19 @@
         <v>301824</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>274454</v>
+        <v>273610</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>330699</v>
+        <v>329991</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3663570662915945</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3331341500216095</v>
+        <v>0.3321097501825432</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4014052743555853</v>
+        <v>0.400545598911273</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>451</v>
@@ -4502,19 +4502,19 @@
         <v>491805</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>453428</v>
+        <v>455651</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>529906</v>
+        <v>531831</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3068123546212358</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.282870969132793</v>
+        <v>0.284257372441391</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3305818159578882</v>
+        <v>0.3317821787068104</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>589117</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>564063</v>
+        <v>561874</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>613340</v>
+        <v>613074</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7561528595809693</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.723994597201454</v>
+        <v>0.7211857591712826</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7872435415656239</v>
+        <v>0.7869017454063605</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>478</v>
@@ -4552,19 +4552,19 @@
         <v>522029</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>493154</v>
+        <v>493862</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>549399</v>
+        <v>550243</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6336429337084054</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5985947256444148</v>
+        <v>0.5994544010887267</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6668658499783907</v>
+        <v>0.6678902498174567</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1023</v>
@@ -4573,19 +4573,19 @@
         <v>1111146</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1073045</v>
+        <v>1071120</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1149523</v>
+        <v>1147300</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6931876453787641</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6694181840421117</v>
+        <v>0.6682178212931896</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7171290308672069</v>
+        <v>0.715742627558609</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>769729</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>721938</v>
+        <v>714917</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>819174</v>
+        <v>821697</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2247369141775843</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2107835588097481</v>
+        <v>0.2087335794035335</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2391734075614731</v>
+        <v>0.2399099270594574</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1026</v>
@@ -4698,19 +4698,19 @@
         <v>1100829</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1046330</v>
+        <v>1047095</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1159810</v>
+        <v>1164093</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3094640737154594</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2941432922116361</v>
+        <v>0.2943584660673423</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3260448439393452</v>
+        <v>0.3272488815805965</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1742</v>
@@ -4719,19 +4719,19 @@
         <v>1870558</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1789072</v>
+        <v>1792985</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1944875</v>
+        <v>1952553</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2679025383836764</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2562321568058876</v>
+        <v>0.2567925325237297</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2785462774599574</v>
+        <v>0.2796458947591188</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>2655292</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2605847</v>
+        <v>2603324</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2703083</v>
+        <v>2710104</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7752630858224157</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.760826592438527</v>
+        <v>0.7600900729405425</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7892164411902518</v>
+        <v>0.7912664205964665</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2271</v>
@@ -4769,19 +4769,19 @@
         <v>2456382</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2397401</v>
+        <v>2393118</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2510881</v>
+        <v>2510116</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6905359262845406</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6739551560606548</v>
+        <v>0.6727511184194036</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7058567077883638</v>
+        <v>0.7056415339326577</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4762</v>
@@ -4790,19 +4790,19 @@
         <v>5111674</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5037357</v>
+        <v>5029679</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5193160</v>
+        <v>5189247</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7320974616163236</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7214537225400424</v>
+        <v>0.7203541052408811</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7437678431941123</v>
+        <v>0.7432074674762701</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>94404</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>78798</v>
+        <v>78619</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>112619</v>
+        <v>112270</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3213647307639892</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2682373511455641</v>
+        <v>0.2676292853577957</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3833703798896648</v>
+        <v>0.3821799736631362</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>112</v>
@@ -5159,19 +5159,19 @@
         <v>119044</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>101771</v>
+        <v>102506</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>135979</v>
+        <v>137419</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4123424061580884</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3525116283922505</v>
+        <v>0.3550562494425165</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4709979394446196</v>
+        <v>0.4759869021618721</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>196</v>
@@ -5180,19 +5180,19 @@
         <v>213449</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>190075</v>
+        <v>190985</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>236555</v>
+        <v>238524</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3664585524856161</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3263288053832857</v>
+        <v>0.3278916609193187</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4061276582241677</v>
+        <v>0.409507805126445</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>199357</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>181142</v>
+        <v>181491</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>214963</v>
+        <v>215142</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6786352692360108</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6166296201103354</v>
+        <v>0.6178200263368637</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.731762648854436</v>
+        <v>0.7323707146422043</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>165</v>
@@ -5230,19 +5230,19 @@
         <v>169659</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>152724</v>
+        <v>151284</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>186932</v>
+        <v>186197</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5876575938419116</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5290020605553799</v>
+        <v>0.5240130978381279</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6474883716077494</v>
+        <v>0.6449437505574835</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>347</v>
@@ -5251,19 +5251,19 @@
         <v>369015</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>345909</v>
+        <v>343940</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>392389</v>
+        <v>391479</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6335414475143839</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5938723417758323</v>
+        <v>0.5904921948735551</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6736711946167142</v>
+        <v>0.6721083390806815</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>147949</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>127241</v>
+        <v>128629</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>170271</v>
+        <v>169954</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2943818741272521</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2531790128511324</v>
+        <v>0.2559403240149912</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3387981011994097</v>
+        <v>0.3381659649933907</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>173</v>
@@ -5376,19 +5376,19 @@
         <v>192961</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>170111</v>
+        <v>169842</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>215557</v>
+        <v>215558</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3688909554980507</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3252086914219101</v>
+        <v>0.3246937015870603</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4120883156394952</v>
+        <v>0.4120909280105108</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>313</v>
@@ -5397,19 +5397,19 @@
         <v>340910</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>310009</v>
+        <v>312304</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>371708</v>
+        <v>372514</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3323813404035001</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3022534563317793</v>
+        <v>0.3044910655082741</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3624092234507086</v>
+        <v>0.363194788404537</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>354626</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>332304</v>
+        <v>332621</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>375334</v>
+        <v>373946</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.705618125872748</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6612018988005907</v>
+        <v>0.6618340350066095</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7468209871488677</v>
+        <v>0.7440596759850094</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>311</v>
@@ -5447,19 +5447,19 @@
         <v>330123</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>307527</v>
+        <v>307526</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>352973</v>
+        <v>353242</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6311090445019493</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5879116843605049</v>
+        <v>0.5879090719894894</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6747913085780901</v>
+        <v>0.6753062984129398</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>646</v>
@@ -5468,19 +5468,19 @@
         <v>684749</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>653951</v>
+        <v>653145</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>715650</v>
+        <v>713355</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6676186595964999</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6375907765492914</v>
+        <v>0.636805211595463</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6977465436682206</v>
+        <v>0.6955089344917258</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>101205</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>85331</v>
+        <v>86374</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>118653</v>
+        <v>120585</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3176913239543053</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2678591857082609</v>
+        <v>0.2711336270851245</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3724608169030425</v>
+        <v>0.3785241001284337</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>119</v>
@@ -5593,19 +5593,19 @@
         <v>124361</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>105544</v>
+        <v>107374</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>141506</v>
+        <v>142978</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3697816210575142</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3138307326339346</v>
+        <v>0.3192729085974619</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.42076157736834</v>
+        <v>0.4251384005418461</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>225</v>
@@ -5614,19 +5614,19 @@
         <v>225566</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>203037</v>
+        <v>202457</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>250595</v>
+        <v>249973</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3444421734966627</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3100401159292742</v>
+        <v>0.3091541552702483</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3826617251074681</v>
+        <v>0.3817112267134943</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>217360</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>199912</v>
+        <v>197980</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>233234</v>
+        <v>232191</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6823086760456947</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6275391830969577</v>
+        <v>0.6214758998715665</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7321408142917391</v>
+        <v>0.7288663729148758</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>213</v>
@@ -5664,19 +5664,19 @@
         <v>211948</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>194803</v>
+        <v>193331</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>230765</v>
+        <v>228935</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6302183789424859</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5792384226316606</v>
+        <v>0.574861599458154</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6861692673660654</v>
+        <v>0.6807270914025382</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>442</v>
@@ -5685,19 +5685,19 @@
         <v>429308</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>404279</v>
+        <v>404901</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>451837</v>
+        <v>452417</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6555578265033374</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6173382748925318</v>
+        <v>0.6182887732865058</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6899598840707257</v>
+        <v>0.6908458447297517</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>80231</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>66392</v>
+        <v>63146</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>97239</v>
+        <v>95751</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2168609487545463</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1794562082731095</v>
+        <v>0.1706808171899243</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2628333477490451</v>
+        <v>0.2588109266022301</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>122</v>
@@ -5810,19 +5810,19 @@
         <v>135119</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>115953</v>
+        <v>117459</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>155052</v>
+        <v>154605</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3488907322623254</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2994020999762323</v>
+        <v>0.3032891385616558</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4003574850691078</v>
+        <v>0.3992035029229012</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>200</v>
@@ -5831,19 +5831,19 @@
         <v>215350</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>192142</v>
+        <v>190628</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>243321</v>
+        <v>241014</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2843856676689563</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2537371347569412</v>
+        <v>0.2517378147648178</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3213232085794242</v>
+        <v>0.3182770818093492</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>289733</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>272725</v>
+        <v>274213</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>303572</v>
+        <v>306818</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7831390512454537</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.737166652250955</v>
+        <v>0.7411890733977698</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8205437917268908</v>
+        <v>0.8293191828100757</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>236</v>
@@ -5881,19 +5881,19 @@
         <v>252164</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>232231</v>
+        <v>232678</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>271330</v>
+        <v>269824</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6511092677376746</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5996425149308923</v>
+        <v>0.600796497077099</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7005979000237677</v>
+        <v>0.6967108614383443</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>512</v>
@@ -5902,19 +5902,19 @@
         <v>541897</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>513926</v>
+        <v>516233</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>565105</v>
+        <v>566619</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7156143323310437</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6786767914205758</v>
+        <v>0.681722918190651</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7462628652430588</v>
+        <v>0.7482621852351824</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>73435</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>59897</v>
+        <v>60433</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>88968</v>
+        <v>87739</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3476681333964877</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2835751982898114</v>
+        <v>0.286114460303341</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.42120737267377</v>
+        <v>0.4153914505170917</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>105</v>
@@ -6027,19 +6027,19 @@
         <v>105639</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>91837</v>
+        <v>91764</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>120283</v>
+        <v>119871</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4832803777747536</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4201394126987361</v>
+        <v>0.4198073144085372</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.550276270927737</v>
+        <v>0.548392414192683</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>180</v>
@@ -6048,19 +6048,19 @@
         <v>179074</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>159270</v>
+        <v>158116</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>197552</v>
+        <v>199025</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4166363093773934</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3705604549908673</v>
+        <v>0.3678758987171563</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4596290845777106</v>
+        <v>0.4630565553523687</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>137786</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>122253</v>
+        <v>123482</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>151324</v>
+        <v>150788</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6523318666035123</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.57879262732623</v>
+        <v>0.5846085494829082</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.716424801710189</v>
+        <v>0.7138855396966588</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>118</v>
@@ -6098,19 +6098,19 @@
         <v>112948</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>98304</v>
+        <v>98716</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>126750</v>
+        <v>126823</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5167196222252464</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4497237290722629</v>
+        <v>0.4516075858073169</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5798605873012638</v>
+        <v>0.5801926855914629</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>255</v>
@@ -6119,19 +6119,19 @@
         <v>250734</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>232256</v>
+        <v>230783</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>270538</v>
+        <v>271692</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5833636906226066</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5403709154222893</v>
+        <v>0.5369434446476317</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6294395450091326</v>
+        <v>0.632124101282844</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>90391</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>76810</v>
+        <v>76465</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>107072</v>
+        <v>107361</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3435308133157088</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2919181280393067</v>
+        <v>0.2906046948233105</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4069284649263106</v>
+        <v>0.4080261851144641</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>109</v>
@@ -6244,19 +6244,19 @@
         <v>113751</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>97338</v>
+        <v>96917</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>130182</v>
+        <v>129511</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4164952219744731</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.356400309357752</v>
+        <v>0.3548596250515526</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4766562611013892</v>
+        <v>0.4742009090615693</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>199</v>
@@ -6265,19 +6265,19 @@
         <v>204142</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>183892</v>
+        <v>183131</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>229234</v>
+        <v>228662</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3806928095130429</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3429289229418848</v>
+        <v>0.3415102573603707</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4274855988620984</v>
+        <v>0.4264196684304598</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>172732</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>156051</v>
+        <v>155762</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>186313</v>
+        <v>186658</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6564691866842911</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5930715350736895</v>
+        <v>0.5919738148855358</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7080818719606934</v>
+        <v>0.7093953051766893</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>154</v>
@@ -6315,19 +6315,19 @@
         <v>159364</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>142933</v>
+        <v>143604</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>175777</v>
+        <v>176198</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5835047780255269</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5233437388986107</v>
+        <v>0.5257990909384307</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.643599690642248</v>
+        <v>0.6451403749484474</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>323</v>
@@ -6336,19 +6336,19 @@
         <v>332096</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>307004</v>
+        <v>307576</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>352346</v>
+        <v>353107</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6193071904869571</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5725144011379016</v>
+        <v>0.5735803315695397</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6570710770581153</v>
+        <v>0.6584897426396293</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>262198</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>237745</v>
+        <v>236059</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>291228</v>
+        <v>288282</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3993518055188278</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3621074795668366</v>
+        <v>0.3595402593601246</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4435684874818743</v>
+        <v>0.4390804185728598</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>289</v>
@@ -6461,19 +6461,19 @@
         <v>321476</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>293725</v>
+        <v>295291</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>347638</v>
+        <v>348774</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4650344889899679</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4248919003900069</v>
+        <v>0.4271564878693003</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.502880823163105</v>
+        <v>0.5045238396569026</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>528</v>
@@ -6482,19 +6482,19 @@
         <v>583673</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>547692</v>
+        <v>543530</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>625826</v>
+        <v>622663</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4330395138882893</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4063440981406365</v>
+        <v>0.4032565451134552</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4643132582961479</v>
+        <v>0.4619666814278174</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>394360</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>365330</v>
+        <v>368276</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>418813</v>
+        <v>420499</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6006481944811721</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5564315125181257</v>
+        <v>0.5609195814271402</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6378925204331632</v>
+        <v>0.6404597406398753</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>357</v>
@@ -6532,19 +6532,19 @@
         <v>369818</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>343656</v>
+        <v>342520</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>397569</v>
+        <v>396003</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5349655110100321</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4971191768368952</v>
+        <v>0.4954761603430973</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5751080996099932</v>
+        <v>0.5728435121306997</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>698</v>
@@ -6553,19 +6553,19 @@
         <v>764179</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>722026</v>
+        <v>725189</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>800160</v>
+        <v>804322</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5669604861117107</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.535686741703852</v>
+        <v>0.5380333185721826</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5936559018593636</v>
+        <v>0.5967434548865448</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>298132</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>273221</v>
+        <v>273850</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>325877</v>
+        <v>327478</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3829155127394457</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3509209185531997</v>
+        <v>0.3517283608866478</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4185514433546875</v>
+        <v>0.4206078306065983</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>367</v>
@@ -6678,19 +6678,19 @@
         <v>402016</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>373042</v>
+        <v>370414</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>431940</v>
+        <v>432211</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4866043017077505</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4515334989575053</v>
+        <v>0.4483525491519256</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5228235383277516</v>
+        <v>0.5231523044542797</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>655</v>
@@ -6699,19 +6699,19 @@
         <v>700148</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>658441</v>
+        <v>658965</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>741488</v>
+        <v>739410</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4362971958595749</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4103077620282592</v>
+        <v>0.4106339649978311</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4620585355785461</v>
+        <v>0.4607635484457414</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>480451</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>452706</v>
+        <v>451105</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>505362</v>
+        <v>504733</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6170844872605543</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5814485566453126</v>
+        <v>0.5793921693934017</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6490790814468004</v>
+        <v>0.6482716391133522</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>388</v>
@@ -6749,19 +6749,19 @@
         <v>424151</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>394227</v>
+        <v>393956</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>453125</v>
+        <v>455753</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5133956982922495</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4771764616722484</v>
+        <v>0.4768476955457203</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5484665010424947</v>
+        <v>0.5516474508480743</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>850</v>
@@ -6770,19 +6770,19 @@
         <v>904602</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>863262</v>
+        <v>865340</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>946309</v>
+        <v>945785</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5637028041404252</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5379414644214541</v>
+        <v>0.5392364515542587</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5896922379717408</v>
+        <v>0.5893660350021689</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>1147944</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1091606</v>
+        <v>1088256</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1199965</v>
+        <v>1199984</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3381926612854238</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3215950534006219</v>
+        <v>0.3206081735745137</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3535183184946157</v>
+        <v>0.353523931978083</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1396</v>
@@ -6895,19 +6895,19 @@
         <v>1514368</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1455953</v>
+        <v>1454466</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1575227</v>
+        <v>1574632</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4272393023573018</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4107592739346166</v>
+        <v>0.410339723347931</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4444092013992952</v>
+        <v>0.444241410252863</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2496</v>
@@ -6916,19 +6916,19 @@
         <v>2662312</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2572534</v>
+        <v>2580133</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2743026</v>
+        <v>2747022</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3836796848024363</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3707413547908247</v>
+        <v>0.3718364302780425</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3953118743132139</v>
+        <v>0.3958876472687944</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>2246406</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2194385</v>
+        <v>2194366</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2302744</v>
+        <v>2306094</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6618073387145762</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6464816815053843</v>
+        <v>0.6464760680219169</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.678404946599378</v>
+        <v>0.6793918264254862</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1942</v>
@@ -6966,19 +6966,19 @@
         <v>2030174</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1969315</v>
+        <v>1969910</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2088589</v>
+        <v>2090076</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5727606976426982</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5555907986007049</v>
+        <v>0.555758589747137</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5892407260653835</v>
+        <v>0.589660276652069</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4073</v>
@@ -6987,19 +6987,19 @@
         <v>4276580</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4195866</v>
+        <v>4191870</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4366358</v>
+        <v>4358759</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6163203151975637</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6046881256867861</v>
+        <v>0.6041123527312056</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6292586452091754</v>
+        <v>0.6281635697219577</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>143732</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>125262</v>
+        <v>125492</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>162630</v>
+        <v>161457</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4507885334264731</v>
+        <v>0.4507885334264732</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3928622512136842</v>
+        <v>0.3935833339751932</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5100582280294246</v>
+        <v>0.5063812733187584</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>272</v>
@@ -7356,19 +7356,19 @@
         <v>160526</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>145237</v>
+        <v>145969</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>174523</v>
+        <v>174948</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5078942875473478</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4595213508659053</v>
+        <v>0.461836737866061</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5521811555218515</v>
+        <v>0.5535258385288494</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>426</v>
@@ -7377,19 +7377,19 @@
         <v>304257</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>280462</v>
+        <v>280630</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>327867</v>
+        <v>329751</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.479216180233321</v>
+        <v>0.4792161802333211</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4417375943939629</v>
+        <v>0.4420030455297761</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5164030298745647</v>
+        <v>0.5193694975309062</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>175113</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>156215</v>
+        <v>157388</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>193583</v>
+        <v>193353</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5492114665735268</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4899417719705755</v>
+        <v>0.4936187266812417</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6071377487863158</v>
+        <v>0.6064166660248069</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>266</v>
@@ -7427,19 +7427,19 @@
         <v>155535</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>141538</v>
+        <v>141113</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>170824</v>
+        <v>170092</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4921057124526522</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4478188444781483</v>
+        <v>0.4464741614711505</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5404786491340948</v>
+        <v>0.5381632621339391</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>443</v>
@@ -7448,19 +7448,19 @@
         <v>330649</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>307039</v>
+        <v>305155</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>354444</v>
+        <v>354276</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.520783819766679</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4835969701254353</v>
+        <v>0.4806305024690938</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5582624056060372</v>
+        <v>0.5579969544702238</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>206915</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>179792</v>
+        <v>180396</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>235543</v>
+        <v>235008</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3909796515278627</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3397284853646859</v>
+        <v>0.340869455569599</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4450738698447739</v>
+        <v>0.4440615262903681</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>392</v>
@@ -7573,19 +7573,19 @@
         <v>290093</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>267417</v>
+        <v>268137</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>310777</v>
+        <v>310066</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5314065685180545</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4898689388557216</v>
+        <v>0.4911868211978546</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5692977101350181</v>
+        <v>0.5679944810440323</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>552</v>
@@ -7594,19 +7594,19 @@
         <v>497008</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>462676</v>
+        <v>461313</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>533086</v>
+        <v>533329</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.4622819969607888</v>
+        <v>0.4622819969607889</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4303486399461499</v>
+        <v>0.4290812136372132</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4958394751898889</v>
+        <v>0.4960652016007024</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>322308</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>293680</v>
+        <v>294215</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>349431</v>
+        <v>348827</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6090203484721373</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5549261301552261</v>
+        <v>0.5559384737096319</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6602715146353142</v>
+        <v>0.6591305444304011</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>324</v>
@@ -7644,19 +7644,19 @@
         <v>255803</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>235119</v>
+        <v>235830</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>278479</v>
+        <v>277759</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4685934314819455</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.430702289864982</v>
+        <v>0.4320055189559678</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5101310611442785</v>
+        <v>0.5088131788021455</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>545</v>
@@ -7665,19 +7665,19 @@
         <v>578111</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>542033</v>
+        <v>541790</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>612443</v>
+        <v>613806</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.5377180030392111</v>
+        <v>0.5377180030392112</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5041605248101111</v>
+        <v>0.5039347983992974</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5696513600538502</v>
+        <v>0.5709187863627866</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>117313</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>101140</v>
+        <v>102422</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>135343</v>
+        <v>134119</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3712534393510352</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3200718912483158</v>
+        <v>0.3241279629128002</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4283095899492503</v>
+        <v>0.4244378932820003</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>222</v>
@@ -7790,19 +7790,19 @@
         <v>142623</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>127383</v>
+        <v>126247</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>157135</v>
+        <v>158909</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4001987206891779</v>
+        <v>0.4001987206891778</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3574362673465109</v>
+        <v>0.3542463128014191</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4409183511163599</v>
+        <v>0.4458977751094155</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>356</v>
@@ -7811,19 +7811,19 @@
         <v>259937</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>238967</v>
+        <v>236278</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>284618</v>
+        <v>282743</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3865954162353128</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3554068547616651</v>
+        <v>0.3514077489856288</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4233031784775406</v>
+        <v>0.4205132635020506</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>198680</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>180650</v>
+        <v>181874</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>214853</v>
+        <v>213571</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6287465606489647</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5716904100507498</v>
+        <v>0.5755621067179998</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6799281087516844</v>
+        <v>0.6758720370871999</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>314</v>
@@ -7861,19 +7861,19 @@
         <v>213758</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>199246</v>
+        <v>197472</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>228998</v>
+        <v>230134</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5998012793108222</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5590816488836399</v>
+        <v>0.5541022248905845</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6425637326534888</v>
+        <v>0.6457536871985807</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>540</v>
@@ -7882,19 +7882,19 @@
         <v>412438</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>387757</v>
+        <v>389632</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>433408</v>
+        <v>436097</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6134045837646872</v>
+        <v>0.6134045837646871</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5766968215224596</v>
+        <v>0.5794867364979491</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6445931452383358</v>
+        <v>0.6485922510143701</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>128279</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>103803</v>
+        <v>106045</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>152045</v>
+        <v>154453</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3443831767221808</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2786737337090031</v>
+        <v>0.2846935599489848</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4081875977332884</v>
+        <v>0.4146511177003081</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>239</v>
@@ -8007,19 +8007,19 @@
         <v>164064</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>146780</v>
+        <v>144909</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>185485</v>
+        <v>184112</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3888136412933663</v>
+        <v>0.3888136412933664</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3478527227351471</v>
+        <v>0.3434183880774115</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4395795226331819</v>
+        <v>0.4363240561994776</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>332</v>
@@ -8028,19 +8028,19 @@
         <v>292343</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>257187</v>
+        <v>263789</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>320091</v>
+        <v>327404</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3679818326571402</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3237294441386283</v>
+        <v>0.3320393157629228</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.40290843881276</v>
+        <v>0.4121136396118445</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>244209</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>220443</v>
+        <v>218035</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>268685</v>
+        <v>266443</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6556168232778193</v>
+        <v>0.6556168232778192</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5918124022667116</v>
+        <v>0.5853488822996916</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7213262662909974</v>
+        <v>0.7153064400510151</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>360</v>
@@ -8078,19 +8078,19 @@
         <v>257897</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>236476</v>
+        <v>237849</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>275181</v>
+        <v>277052</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6111863587066337</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5604204773668181</v>
+        <v>0.5636759438005223</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6521472772648528</v>
+        <v>0.6565816119225885</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>558</v>
@@ -8099,19 +8099,19 @@
         <v>502107</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>474359</v>
+        <v>467046</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>537263</v>
+        <v>530661</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6320181673428599</v>
+        <v>0.6320181673428598</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5970915611872402</v>
+        <v>0.5878863603881556</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6762705558613719</v>
+        <v>0.6679606842370771</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>18866</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13388</v>
+        <v>13496</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26605</v>
+        <v>26415</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09173211796618058</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06509505739196397</v>
+        <v>0.06561899472494166</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1293584387831148</v>
+        <v>0.1284369951238998</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>71</v>
@@ -8224,19 +8224,19 @@
         <v>30901</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>24570</v>
+        <v>24150</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>39357</v>
+        <v>38638</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1364654555185906</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1085090402158266</v>
+        <v>0.1066539335494853</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.173809692950526</v>
+        <v>0.1706364208993909</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>101</v>
@@ -8245,19 +8245,19 @@
         <v>49767</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>40216</v>
+        <v>40659</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>60362</v>
+        <v>59820</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1151739378026262</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09307199770177439</v>
+        <v>0.09409605898192029</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1396936566284706</v>
+        <v>0.1384408609651384</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>186799</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>179060</v>
+        <v>179250</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>192277</v>
+        <v>192169</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9082678820338193</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8706415612168853</v>
+        <v>0.8715630048761003</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.934904942608036</v>
+        <v>0.9343810052750584</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>419</v>
@@ -8295,19 +8295,19 @@
         <v>195535</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>187079</v>
+        <v>187798</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>201866</v>
+        <v>202286</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8635345444814095</v>
+        <v>0.8635345444814094</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8261903070494735</v>
+        <v>0.8293635791006092</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8914909597841734</v>
+        <v>0.8933460664505146</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>668</v>
@@ -8316,19 +8316,19 @@
         <v>382333</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>371738</v>
+        <v>372280</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>391884</v>
+        <v>391441</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8848260621973739</v>
+        <v>0.8848260621973737</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8603063433715293</v>
+        <v>0.8615591390348616</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9069280022982256</v>
+        <v>0.9059039410180798</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>114766</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>99585</v>
+        <v>100116</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>128905</v>
+        <v>129807</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.4239504640864284</v>
+        <v>0.4239504640864285</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3678685786044165</v>
+        <v>0.3698333025008588</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4761779066870855</v>
+        <v>0.4795092254282232</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>193</v>
@@ -8441,19 +8441,19 @@
         <v>113029</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>100884</v>
+        <v>100965</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>127411</v>
+        <v>125769</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.428545143575175</v>
+        <v>0.4285451435751749</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3824968568365784</v>
+        <v>0.3828057436948507</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4830759747837354</v>
+        <v>0.4768508514836784</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>346</v>
@@ -8462,19 +8462,19 @@
         <v>227795</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>209197</v>
+        <v>208242</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>247412</v>
+        <v>248113</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4262179008334714</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.391419032095002</v>
+        <v>0.3896327730473425</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4629224768296512</v>
+        <v>0.4642342148238519</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>155941</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>141802</v>
+        <v>140900</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>171122</v>
+        <v>170591</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5760495359135716</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5238220933129144</v>
+        <v>0.5204907745717767</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6321314213955834</v>
+        <v>0.6301666974991413</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>267</v>
@@ -8512,19 +8512,19 @@
         <v>150721</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>136339</v>
+        <v>137981</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>162866</v>
+        <v>162785</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.571454856424825</v>
+        <v>0.5714548564248247</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5169240252162649</v>
+        <v>0.5231491485163215</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6175031431634218</v>
+        <v>0.6171942563051493</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>485</v>
@@ -8533,19 +8533,19 @@
         <v>306662</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>287045</v>
+        <v>286344</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>325260</v>
+        <v>326215</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5737820991665284</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5370775231703488</v>
+        <v>0.5357657851761485</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6085809679049979</v>
+        <v>0.6103672269526579</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>207487</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>179840</v>
+        <v>181829</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>233880</v>
+        <v>237420</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.290498149741283</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2517901110281744</v>
+        <v>0.2545750058193082</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3274501494757267</v>
+        <v>0.3324071978168074</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>381</v>
@@ -8658,19 +8658,19 @@
         <v>314867</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>289683</v>
+        <v>288142</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>342296</v>
+        <v>341654</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.4108117828661157</v>
+        <v>0.4108117828661156</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3779538980483212</v>
+        <v>0.3759431633419268</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.446599245381043</v>
+        <v>0.4457607160548808</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>562</v>
@@ -8679,19 +8679,19 @@
         <v>522354</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>486452</v>
+        <v>481299</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>557687</v>
+        <v>558432</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.352775969723167</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3285291129445489</v>
+        <v>0.3250489194032488</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3766383216136414</v>
+        <v>0.3771414027118295</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>506758</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>480365</v>
+        <v>476825</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>534405</v>
+        <v>532416</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.709501850258717</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6725498505242733</v>
+        <v>0.6675928021831927</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7482098889718254</v>
+        <v>0.7454249941806919</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>572</v>
@@ -8729,19 +8729,19 @@
         <v>451584</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>424155</v>
+        <v>424797</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>476768</v>
+        <v>478309</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5891882171338843</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5534007546189564</v>
+        <v>0.554239283945119</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6220461019516783</v>
+        <v>0.624056836658073</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>985</v>
@@ -8750,19 +8750,19 @@
         <v>958343</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>923010</v>
+        <v>922265</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>994245</v>
+        <v>999398</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6472240302768331</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6233616783863586</v>
+        <v>0.6228585972881706</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6714708870554511</v>
+        <v>0.6749510805967514</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>240946</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>215926</v>
+        <v>213627</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>268487</v>
+        <v>268820</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.3028382324987578</v>
+        <v>0.3028382324987577</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.271390880113447</v>
+        <v>0.2685011394157575</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3374533610707356</v>
+        <v>0.3378722794880083</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>397</v>
@@ -8875,19 +8875,19 @@
         <v>292727</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>270112</v>
+        <v>269054</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>319880</v>
+        <v>316975</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3530685172299003</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3257918481719164</v>
+        <v>0.3245150029018867</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3858186292404988</v>
+        <v>0.3823150534384723</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>653</v>
@@ -8896,19 +8896,19 @@
         <v>533674</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>500324</v>
+        <v>498534</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>569372</v>
+        <v>568551</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.328470718769364</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3079440779518275</v>
+        <v>0.3068429292723074</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3504426326247497</v>
+        <v>0.3499377051095904</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>554681</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>527140</v>
+        <v>526807</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>579701</v>
+        <v>582000</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.6971617675012424</v>
+        <v>0.6971617675012421</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6625466389292647</v>
+        <v>0.662127720511992</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.728609119886553</v>
+        <v>0.7314988605842427</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>662</v>
@@ -8946,19 +8946,19 @@
         <v>536368</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>509215</v>
+        <v>512120</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>558983</v>
+        <v>560041</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.6469314827700997</v>
+        <v>0.6469314827700998</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6141813707595019</v>
+        <v>0.6176849465615277</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6742081518280836</v>
+        <v>0.6754849970981132</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1166</v>
@@ -8967,19 +8967,19 @@
         <v>1091048</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1055350</v>
+        <v>1056171</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1124398</v>
+        <v>1126188</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6715292812306359</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.64955736737525</v>
+        <v>0.65006229489041</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6920559220481726</v>
+        <v>0.6931570707276926</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>1178305</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1114025</v>
+        <v>1109009</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1241214</v>
+        <v>1236492</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.334480302848111</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3162332975722714</v>
+        <v>0.3148094927891202</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.352337987108798</v>
+        <v>0.3509975941629788</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2167</v>
@@ -9092,19 +9092,19 @@
         <v>1508830</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1459251</v>
+        <v>1453119</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1565482</v>
+        <v>1558171</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.4049428888714752</v>
+        <v>0.4049428888714753</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3916369186741544</v>
+        <v>0.3899910055452638</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4201473400238085</v>
+        <v>0.4181851399655879</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3328</v>
@@ -9113,19 +9113,19 @@
         <v>2687135</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2601476</v>
+        <v>2602804</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2766942</v>
+        <v>2773500</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3706993864467603</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3588824837130749</v>
+        <v>0.3590656153863635</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3817090729197802</v>
+        <v>0.3826137442505274</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>2344489</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2281580</v>
+        <v>2286302</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2408769</v>
+        <v>2413785</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6655196971518892</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.647662012891202</v>
+        <v>0.6490024058370208</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6837667024277285</v>
+        <v>0.6851905072108796</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3184</v>
@@ -9163,19 +9163,19 @@
         <v>2217201</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2160549</v>
+        <v>2167860</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2266780</v>
+        <v>2272912</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5950571111285246</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5798526599761916</v>
+        <v>0.5818148600344121</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6083630813258455</v>
+        <v>0.6100089944547364</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5390</v>
@@ -9184,19 +9184,19 @@
         <v>4561690</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4481883</v>
+        <v>4475325</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4647349</v>
+        <v>4646021</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.6293006135532399</v>
+        <v>0.6293006135532397</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.61829092708022</v>
+        <v>0.6173862557494724</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6411175162869251</v>
+        <v>0.6409343846136363</v>
       </c>
     </row>
     <row r="30">
